--- a/WA _District_SAT_2019.xlsx
+++ b/WA _District_SAT_2019.xlsx
@@ -66,749 +66,749 @@
     <t>Exams with Scores of 3, 4 or 5</t>
   </si>
   <si>
-    <t>Aberdeen School District 5</t>
-  </si>
-  <si>
-    <t>Adna School District 226</t>
-  </si>
-  <si>
-    <t>Anacortes School District 103</t>
-  </si>
-  <si>
-    <t>Arlington Public Schools (WA)</t>
-  </si>
-  <si>
-    <t>Asotin-Anatone School District 420</t>
-  </si>
-  <si>
-    <t>Auburn School Dist 408</t>
-  </si>
-  <si>
-    <t>Bainbridge Island School District 303</t>
-  </si>
-  <si>
-    <t>Battle Ground Public Schools</t>
-  </si>
-  <si>
-    <t>Bellevue School District 405</t>
-  </si>
-  <si>
-    <t>Bellingham School District (WA)</t>
-  </si>
-  <si>
-    <t>Bethel School District 403</t>
-  </si>
-  <si>
-    <t>Bickleton School District 203</t>
-  </si>
-  <si>
-    <t>Blaine School District 503</t>
-  </si>
-  <si>
-    <t>Bremerton School District</t>
-  </si>
-  <si>
-    <t>Brewster School District 111</t>
-  </si>
-  <si>
-    <t>Bridgeport School District 75</t>
-  </si>
-  <si>
-    <t>Burlington-Edison School District 100</t>
-  </si>
-  <si>
-    <t>Camas School District 117</t>
-  </si>
-  <si>
-    <t>Cape Flattery School District 401</t>
-  </si>
-  <si>
-    <t>Cascade School District 228</t>
-  </si>
-  <si>
-    <t>Cashmere School District 222</t>
-  </si>
-  <si>
-    <t>Castle Rock School District 401</t>
-  </si>
-  <si>
-    <t>Central Kitsap School District</t>
-  </si>
-  <si>
-    <t>Central Valley School District (WA)</t>
-  </si>
-  <si>
-    <t>Centralia School District 401</t>
-  </si>
-  <si>
-    <t>Chehalis School District 302</t>
-  </si>
-  <si>
-    <t>Cheney School District 360</t>
-  </si>
-  <si>
-    <t>Chewelah School District 36</t>
-  </si>
-  <si>
-    <t>Chimacum School District 49</t>
-  </si>
-  <si>
-    <t>Clarkston School District J250-185</t>
-  </si>
-  <si>
-    <t>Cle Elum-Roslyn School District 404</t>
-  </si>
-  <si>
-    <t>Clover Park School District 400</t>
-  </si>
-  <si>
-    <t>Colfax School District 300</t>
-  </si>
-  <si>
-    <t>College Place School District 250</t>
-  </si>
-  <si>
-    <t>Colton School District 306</t>
-  </si>
-  <si>
-    <t>Columbia School District 206</t>
-  </si>
-  <si>
-    <t>Columbia School District 400</t>
-  </si>
-  <si>
-    <t>Colville School District 115</t>
-  </si>
-  <si>
-    <t>Concrete School District 11</t>
-  </si>
-  <si>
-    <t>Coulee-Hartline School District 151</t>
-  </si>
-  <si>
-    <t>Coupeville School District 204</t>
-  </si>
-  <si>
-    <t>Crescent School District 313</t>
-  </si>
-  <si>
-    <t>Curlew School District 50</t>
-  </si>
-  <si>
-    <t>Cusick School District 59</t>
-  </si>
-  <si>
-    <t>Darrington School District 330</t>
-  </si>
-  <si>
-    <t>Davenport School District 207</t>
-  </si>
-  <si>
-    <t>Dayton School District 2</t>
-  </si>
-  <si>
-    <t>Deer Park School District 414</t>
-  </si>
-  <si>
-    <t>East Valley School District 90</t>
-  </si>
-  <si>
-    <t>East Valley School District 361</t>
-  </si>
-  <si>
-    <t>Eastmont School District 206</t>
-  </si>
-  <si>
-    <t>Easton School District 28</t>
-  </si>
-  <si>
-    <t>Eatonville School District 404</t>
-  </si>
-  <si>
-    <t>Edmonds School District 15</t>
-  </si>
-  <si>
-    <t>Ellensburg School District 401</t>
-  </si>
-  <si>
-    <t>Elma School District 68</t>
-  </si>
-  <si>
-    <t>Entiat School District 127</t>
-  </si>
-  <si>
-    <t>Enumclaw School District 216</t>
-  </si>
-  <si>
-    <t>Ephrata School District 165</t>
-  </si>
-  <si>
-    <t>Everett Public Schools</t>
-  </si>
-  <si>
-    <t>Evergreen School District #114</t>
-  </si>
-  <si>
-    <t>Federal Way Public Schools</t>
-  </si>
-  <si>
-    <t>Ferndale School District 502</t>
-  </si>
-  <si>
-    <t>Fife School District 417</t>
-  </si>
-  <si>
-    <t>Finley School District 53</t>
-  </si>
-  <si>
-    <t>Franklin Pierce School District 402</t>
-  </si>
-  <si>
-    <t>Freeman School District 358</t>
-  </si>
-  <si>
-    <t>Glenwood School District 401</t>
-  </si>
-  <si>
-    <t>Goldendale School District 404</t>
-  </si>
-  <si>
-    <t>Grand Coulee Dam School District 301-J</t>
-  </si>
-  <si>
-    <t>Grandview School District 200</t>
-  </si>
-  <si>
-    <t>Granger School District 204</t>
-  </si>
-  <si>
-    <t>Granite Falls School District 332</t>
-  </si>
-  <si>
-    <t>Harrington School District 204</t>
-  </si>
-  <si>
-    <t>Highland School District 203</t>
-  </si>
-  <si>
-    <t>Highline Public Schools</t>
-  </si>
-  <si>
-    <t>Hockinson School District 98</t>
-  </si>
-  <si>
-    <t>Hoquiam School District 28</t>
-  </si>
-  <si>
-    <t>Inchelium School District 70</t>
-  </si>
-  <si>
-    <t>Issaquah School District 411</t>
-  </si>
-  <si>
-    <t>Kahlotus School District 56</t>
-  </si>
-  <si>
-    <t>Kalama School District 402</t>
-  </si>
-  <si>
-    <t>Kelso School District 458</t>
-  </si>
-  <si>
-    <t>Kennewick School District 17</t>
-  </si>
-  <si>
-    <t>Kent School District</t>
-  </si>
-  <si>
-    <t>Kettle Falls School District 212</t>
-  </si>
-  <si>
-    <t>Kiona-Benton City School District 52</t>
-  </si>
-  <si>
-    <t>Kittitas School District 403</t>
-  </si>
-  <si>
-    <t>Klickitat School District 402</t>
-  </si>
-  <si>
-    <t>La Center School District</t>
-  </si>
-  <si>
-    <t>La Conner School District 311</t>
-  </si>
-  <si>
-    <t>Lacrosse School District 126</t>
-  </si>
-  <si>
-    <t>Lake Chelan School District 129</t>
-  </si>
-  <si>
-    <t>Lake Quinault School District 97</t>
-  </si>
-  <si>
-    <t>Lake Stevens School District</t>
-  </si>
-  <si>
-    <t>Lake Washington School District</t>
-  </si>
-  <si>
-    <t>Lakewood School District 306</t>
-  </si>
-  <si>
-    <t>Liberty School District 362</t>
-  </si>
-  <si>
-    <t>Longview Public Schools</t>
-  </si>
-  <si>
-    <t>Lopez Island School District 144</t>
-  </si>
-  <si>
-    <t>Lyle School District 406</t>
-  </si>
-  <si>
-    <t>Lynden School District 504</t>
-  </si>
-  <si>
-    <t>Mabton School District 120</t>
-  </si>
-  <si>
-    <t>Mansfield School District 207</t>
-  </si>
-  <si>
-    <t>Manson School District 19</t>
-  </si>
-  <si>
-    <t>Mary M Knight School District 311</t>
-  </si>
-  <si>
-    <t>Mary Walker School District</t>
-  </si>
-  <si>
-    <t>Marysville School District</t>
-  </si>
-  <si>
-    <t>Mead School District</t>
-  </si>
-  <si>
-    <t>Medical Lake School District 326</t>
-  </si>
-  <si>
-    <t>Mercer Island School District</t>
-  </si>
-  <si>
-    <t>Meridian School District 505</t>
-  </si>
-  <si>
-    <t>Methow Valley School District 350</t>
-  </si>
-  <si>
-    <t>Monroe Public Schools</t>
-  </si>
-  <si>
-    <t>Montesano School District 66</t>
-  </si>
-  <si>
-    <t>Morton School District 214</t>
-  </si>
-  <si>
-    <t>Moses Lake School District</t>
-  </si>
-  <si>
-    <t>Mossyrock School District 206</t>
-  </si>
-  <si>
-    <t>Mount Vernon School District 320</t>
-  </si>
-  <si>
-    <t>Mt Adams School District 209</t>
-  </si>
-  <si>
-    <t>Mt Baker School District 507</t>
-  </si>
-  <si>
-    <t>Mukilteo School District</t>
-  </si>
-  <si>
-    <t>Naches Valley School District J-3</t>
-  </si>
-  <si>
-    <t>Napavine School District 14</t>
-  </si>
-  <si>
-    <t>Naselle-Grays River Valley School District 155</t>
-  </si>
-  <si>
-    <t>Newport School District 56-415</t>
-  </si>
-  <si>
-    <t>Nine Mile Falls School District 325-179</t>
-  </si>
-  <si>
-    <t>Nooksack Valley School District 506</t>
-  </si>
-  <si>
-    <t>North Beach School District 64</t>
-  </si>
-  <si>
-    <t>North Franklin School District J-51-162</t>
-  </si>
-  <si>
-    <t>North Kitsap School District 400</t>
-  </si>
-  <si>
-    <t>North Mason School District 403</t>
-  </si>
-  <si>
-    <t>North River School District 200</t>
-  </si>
-  <si>
-    <t>North Thurston Public Schools</t>
-  </si>
-  <si>
-    <t>Northport School District 211</t>
-  </si>
-  <si>
-    <t>Northshore School District</t>
-  </si>
-  <si>
-    <t>Oak Harbor School District 201</t>
-  </si>
-  <si>
-    <t>Oakesdale School District 324</t>
-  </si>
-  <si>
-    <t>Ocean Beach School District 101</t>
-  </si>
-  <si>
-    <t>Ocosta School District 172</t>
-  </si>
-  <si>
-    <t>Odessa School District 105-157-166-J</t>
-  </si>
-  <si>
-    <t>Okanogan School District 105</t>
-  </si>
-  <si>
-    <t>Olympia School District 111</t>
-  </si>
-  <si>
-    <t>Omak School District 19</t>
-  </si>
-  <si>
-    <t>Onalaska School District 300</t>
-  </si>
-  <si>
-    <t>Orcas Island School District 137</t>
-  </si>
-  <si>
-    <t>Oroville School District 410</t>
-  </si>
-  <si>
-    <t>Orting School District 344</t>
-  </si>
-  <si>
-    <t>Othello School District 147</t>
-  </si>
-  <si>
-    <t>Palouse School District 301</t>
-  </si>
-  <si>
-    <t>Pasco School District</t>
-  </si>
-  <si>
-    <t>Pateros School District 122</t>
-  </si>
-  <si>
-    <t>Pe Ell School District 301</t>
-  </si>
-  <si>
-    <t>Peninsula School District 401</t>
-  </si>
-  <si>
-    <t>Pomeroy School District 110</t>
-  </si>
-  <si>
-    <t>Port Angeles School District 121</t>
-  </si>
-  <si>
-    <t>Port Townsend School District 50</t>
-  </si>
-  <si>
-    <t>Prescott School District 402-37</t>
-  </si>
-  <si>
-    <t>Prosser School District 116</t>
-  </si>
-  <si>
-    <t>Pullman School District 267</t>
-  </si>
-  <si>
-    <t>Puyallup School District</t>
-  </si>
-  <si>
-    <t>Quilcene School District 48</t>
-  </si>
-  <si>
-    <t>Quillayute Valley School District 402</t>
-  </si>
-  <si>
-    <t>Quincy School District 144-101</t>
-  </si>
-  <si>
-    <t>Rainier School District 307</t>
-  </si>
-  <si>
-    <t>Raymond School District 116</t>
-  </si>
-  <si>
-    <t>Reardan-Edwall School District 9</t>
-  </si>
-  <si>
-    <t>Renton School District 403</t>
-  </si>
-  <si>
-    <t>Republic School District 309</t>
-  </si>
-  <si>
-    <t>Richland School District 400</t>
-  </si>
-  <si>
-    <t>Ridgefield School District 122</t>
-  </si>
-  <si>
-    <t>Ritzville School District 160</t>
-  </si>
-  <si>
-    <t>Riverside School District 416</t>
-  </si>
-  <si>
-    <t>Riverview School District 407</t>
-  </si>
-  <si>
-    <t>Rochester School District 401</t>
-  </si>
-  <si>
-    <t>Rosalia School District 320</t>
-  </si>
-  <si>
-    <t>Royal School District 160</t>
-  </si>
-  <si>
-    <t>Saint John School District 322</t>
-  </si>
-  <si>
-    <t>San Juan Island School District 149</t>
-  </si>
-  <si>
-    <t>Seattle Public Schools</t>
-  </si>
-  <si>
-    <t>Sedro Woolley School District 101</t>
-  </si>
-  <si>
-    <t>Selah School District 119</t>
-  </si>
-  <si>
-    <t>Selkirk School District</t>
-  </si>
-  <si>
-    <t>Sequim School District 323</t>
-  </si>
-  <si>
-    <t>Shelton School District 309</t>
-  </si>
-  <si>
-    <t>Shoreline School District 412</t>
-  </si>
-  <si>
-    <t>Skykomish School District 404</t>
-  </si>
-  <si>
-    <t>Snohomish School District 201</t>
-  </si>
-  <si>
-    <t>Snoqualmie Valley School District 410</t>
-  </si>
-  <si>
-    <t>Soap Lake School District 156</t>
-  </si>
-  <si>
-    <t>South Bend School District 118</t>
-  </si>
-  <si>
-    <t>South Kitsap School District</t>
-  </si>
-  <si>
-    <t>South Whidbey School District 206</t>
-  </si>
-  <si>
-    <t>Spokane Public Schools</t>
-  </si>
-  <si>
-    <t>Sprague School District 8</t>
-  </si>
-  <si>
-    <t>Stanwood-Camano School District 401</t>
-  </si>
-  <si>
-    <t>Steilacoom Historical School District 1</t>
-  </si>
-  <si>
-    <t>Stevenson Carson School District 303</t>
-  </si>
-  <si>
-    <t>Sultan School District 311</t>
-  </si>
-  <si>
-    <t>Sumner School District 320</t>
-  </si>
-  <si>
-    <t>Sunnyside School District 201</t>
-  </si>
-  <si>
-    <t>Tacoma Public Schools</t>
-  </si>
-  <si>
-    <t>Taholah School District 77</t>
-  </si>
-  <si>
-    <t>Tahoma School District 409</t>
-  </si>
-  <si>
-    <t>Tekoa School District 265</t>
-  </si>
-  <si>
-    <t>Tenino School District 402</t>
-  </si>
-  <si>
-    <t>Thorp School District 400</t>
-  </si>
-  <si>
-    <t>Toledo School District 237</t>
-  </si>
-  <si>
-    <t>Tonasket School District 404</t>
-  </si>
-  <si>
-    <t>Toppenish School District 202</t>
-  </si>
-  <si>
-    <t>Touchet School District 300</t>
-  </si>
-  <si>
-    <t>Toutle Lake School District 130</t>
-  </si>
-  <si>
-    <t>Trout Lake School District R-400</t>
-  </si>
-  <si>
-    <t>Tukwila School District 406</t>
-  </si>
-  <si>
-    <t>Tumwater School District 33</t>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Adna</t>
+  </si>
+  <si>
+    <t>Anacortes</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Asotin-Anatone</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Bainbridge</t>
+  </si>
+  <si>
+    <t>Battle Ground</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Bellingham</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>Bickleton</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Bremerton</t>
+  </si>
+  <si>
+    <t>Brewster</t>
+  </si>
+  <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>Burlington-Edison</t>
+  </si>
+  <si>
+    <t>Camas</t>
+  </si>
+  <si>
+    <t>Cape Flattery</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Cashmere</t>
+  </si>
+  <si>
+    <t>Castle Rock</t>
+  </si>
+  <si>
+    <t>Central Kitsap</t>
+  </si>
+  <si>
+    <t>Central Valley</t>
+  </si>
+  <si>
+    <t>Centralia</t>
+  </si>
+  <si>
+    <t>Chehalis</t>
+  </si>
+  <si>
+    <t>Cheney</t>
+  </si>
+  <si>
+    <t>Chewelah</t>
+  </si>
+  <si>
+    <t>Chimacum</t>
+  </si>
+  <si>
+    <t>Clarkston</t>
+  </si>
+  <si>
+    <t>Cle Elum-Roslyn</t>
+  </si>
+  <si>
+    <t>Clover Park</t>
+  </si>
+  <si>
+    <t>Colfax</t>
+  </si>
+  <si>
+    <t>College Place</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Columbia (Ste)</t>
+  </si>
+  <si>
+    <t>Columbia (Wal)</t>
+  </si>
+  <si>
+    <t>Colville</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Coulee-Hartline</t>
+  </si>
+  <si>
+    <t>Coupeville</t>
+  </si>
+  <si>
+    <t>Crescent</t>
+  </si>
+  <si>
+    <t>Curlew</t>
+  </si>
+  <si>
+    <t>Cusick</t>
+  </si>
+  <si>
+    <t>Darrington</t>
+  </si>
+  <si>
+    <t>Davenport</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Deer Park</t>
+  </si>
+  <si>
+    <t>East Valley (Spo)</t>
+  </si>
+  <si>
+    <t>East Valley (Yak)</t>
+  </si>
+  <si>
+    <t>Eastmont</t>
+  </si>
+  <si>
+    <t>Easton</t>
+  </si>
+  <si>
+    <t>Eatonville</t>
+  </si>
+  <si>
+    <t>Edmonds</t>
+  </si>
+  <si>
+    <t>Ellensburg</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Entiat</t>
+  </si>
+  <si>
+    <t>Enumclaw</t>
+  </si>
+  <si>
+    <t>Ephrata</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>Evergreen (Clark)</t>
+  </si>
+  <si>
+    <t>Federal Way</t>
+  </si>
+  <si>
+    <t>Ferndale</t>
+  </si>
+  <si>
+    <t>Fife</t>
+  </si>
+  <si>
+    <t>Finley</t>
+  </si>
+  <si>
+    <t>Franklin Pierce</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Glenwood</t>
+  </si>
+  <si>
+    <t>Goldendale</t>
+  </si>
+  <si>
+    <t>Grand Coulee Dam</t>
+  </si>
+  <si>
+    <t>Grandview</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
+  <si>
+    <t>Granite Falls</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Highline</t>
+  </si>
+  <si>
+    <t>Hockinson</t>
+  </si>
+  <si>
+    <t>Hoquiam</t>
+  </si>
+  <si>
+    <t>Inchelium</t>
+  </si>
+  <si>
+    <t>Issaquah</t>
+  </si>
+  <si>
+    <t>Kahlotus</t>
+  </si>
+  <si>
+    <t>Kalama</t>
+  </si>
+  <si>
+    <t>Kelso</t>
+  </si>
+  <si>
+    <t>Kennewick</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Kettle Falls</t>
+  </si>
+  <si>
+    <t>Kiona-Benton City</t>
+  </si>
+  <si>
+    <t>Kittitas</t>
+  </si>
+  <si>
+    <t>Klickitat</t>
+  </si>
+  <si>
+    <t>La Center</t>
+  </si>
+  <si>
+    <t>La Conner</t>
+  </si>
+  <si>
+    <t>Lacrosse</t>
+  </si>
+  <si>
+    <t>Lake Chelan</t>
+  </si>
+  <si>
+    <t>Lake Quinault</t>
+  </si>
+  <si>
+    <t>Lake Stevens</t>
+  </si>
+  <si>
+    <t>Lake Washington</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Longview</t>
+  </si>
+  <si>
+    <t>Lopez Island</t>
+  </si>
+  <si>
+    <t>Lyle</t>
+  </si>
+  <si>
+    <t>Lynden</t>
+  </si>
+  <si>
+    <t>Mabton</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Manson</t>
+  </si>
+  <si>
+    <t>Mary M Knight</t>
+  </si>
+  <si>
+    <t>Mary Walker</t>
+  </si>
+  <si>
+    <t>Marysville</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Medical Lake</t>
+  </si>
+  <si>
+    <t>Mercer Island</t>
+  </si>
+  <si>
+    <t>Meridian</t>
+  </si>
+  <si>
+    <t>Methow Valley</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Montesano</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Moses Lake</t>
+  </si>
+  <si>
+    <t>Mossyrock</t>
+  </si>
+  <si>
+    <t>Mount Vernon</t>
+  </si>
+  <si>
+    <t>Mt Adams</t>
+  </si>
+  <si>
+    <t>Mt Baker</t>
+  </si>
+  <si>
+    <t>Mukilteo</t>
+  </si>
+  <si>
+    <t>Naches Valley</t>
+  </si>
+  <si>
+    <t>Napavine</t>
+  </si>
+  <si>
+    <t>Naselle-Grays R.</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Nine Mile Falls</t>
+  </si>
+  <si>
+    <t>Nooksack Valley</t>
+  </si>
+  <si>
+    <t>North Beach</t>
+  </si>
+  <si>
+    <t>North Franklin</t>
+  </si>
+  <si>
+    <t>North Kitsap</t>
+  </si>
+  <si>
+    <t>North Mason</t>
+  </si>
+  <si>
+    <t>North River</t>
+  </si>
+  <si>
+    <t>North Thurston</t>
+  </si>
+  <si>
+    <t>Northport</t>
+  </si>
+  <si>
+    <t>Northshore</t>
+  </si>
+  <si>
+    <t>Oak Harbor</t>
+  </si>
+  <si>
+    <t>Oakesdale</t>
+  </si>
+  <si>
+    <t>Ocean Beach</t>
+  </si>
+  <si>
+    <t>Ocosta</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>Okanogan</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Omak</t>
+  </si>
+  <si>
+    <t>Onalaska</t>
+  </si>
+  <si>
+    <t>Orcas Island</t>
+  </si>
+  <si>
+    <t>Oroville</t>
+  </si>
+  <si>
+    <t>Orting</t>
+  </si>
+  <si>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>Palouse</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Pateros</t>
+  </si>
+  <si>
+    <t>Pe Ell</t>
+  </si>
+  <si>
+    <t>Peninsula</t>
+  </si>
+  <si>
+    <t>Pomeroy</t>
+  </si>
+  <si>
+    <t>Port Angeles</t>
+  </si>
+  <si>
+    <t>Port Townsend</t>
+  </si>
+  <si>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>Prosser</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>Puyallup</t>
+  </si>
+  <si>
+    <t>Quilcene</t>
+  </si>
+  <si>
+    <t>Quillayute Valley</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Rainier</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Reardan-Edwall</t>
+  </si>
+  <si>
+    <t>Renton</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Richland</t>
+  </si>
+  <si>
+    <t>Ridgefield</t>
+  </si>
+  <si>
+    <t>Ritzville</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Riverview</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Rosalia</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Saint John</t>
+  </si>
+  <si>
+    <t>San Juan Island</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sedro Woolley</t>
+  </si>
+  <si>
+    <t>Selah</t>
+  </si>
+  <si>
+    <t>Selkirk</t>
+  </si>
+  <si>
+    <t>Sequim</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Shoreline</t>
+  </si>
+  <si>
+    <t>Skykomish</t>
+  </si>
+  <si>
+    <t>Snohomish</t>
+  </si>
+  <si>
+    <t>Snoqualmie Valley</t>
+  </si>
+  <si>
+    <t>Soap Lake</t>
+  </si>
+  <si>
+    <t>South Bend</t>
+  </si>
+  <si>
+    <t>South Kitsap</t>
+  </si>
+  <si>
+    <t>South Whidbey</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>Sprague</t>
+  </si>
+  <si>
+    <t>Stanwood-Camano</t>
+  </si>
+  <si>
+    <t>Steilacoom Hist.</t>
+  </si>
+  <si>
+    <t>Stevenson-Carson</t>
+  </si>
+  <si>
+    <t>Sultan</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Sunnyside</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Taholah</t>
+  </si>
+  <si>
+    <t>Tahoma</t>
+  </si>
+  <si>
+    <t>Tekoa</t>
+  </si>
+  <si>
+    <t>Tenino</t>
+  </si>
+  <si>
+    <t>Thorp</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tonasket</t>
+  </si>
+  <si>
+    <t>Toppenish</t>
+  </si>
+  <si>
+    <t>Touchet</t>
+  </si>
+  <si>
+    <t>Toutle Lake</t>
+  </si>
+  <si>
+    <t>Trout Lake</t>
+  </si>
+  <si>
+    <t>Tukwila</t>
+  </si>
+  <si>
+    <t>Tumwater</t>
   </si>
   <si>
     <t>Unassociated</t>
   </si>
   <si>
-    <t>University Place School Dist 83</t>
-  </si>
-  <si>
-    <t>Valley School District 70</t>
-  </si>
-  <si>
-    <t>Vancouver Public Schools</t>
-  </si>
-  <si>
-    <t>Vashon Island School District 402</t>
-  </si>
-  <si>
-    <t>Wahkiakum School District 200</t>
-  </si>
-  <si>
-    <t>Wahluke School District 73</t>
-  </si>
-  <si>
-    <t>Waitsburg School District 401-100</t>
-  </si>
-  <si>
-    <t>Walla Walla School District 140</t>
-  </si>
-  <si>
-    <t>Wapato School District 207</t>
-  </si>
-  <si>
-    <t>Warden School District 146-161</t>
-  </si>
-  <si>
-    <t>Washougal School District 112-6</t>
-  </si>
-  <si>
-    <t>Washtucna School District 109-43</t>
-  </si>
-  <si>
-    <t>Waterville School District 209</t>
-  </si>
-  <si>
-    <t>Wellpinit School District 49</t>
-  </si>
-  <si>
-    <t>Wenatchee School District 246</t>
-  </si>
-  <si>
-    <t>West Valley School District 208</t>
-  </si>
-  <si>
-    <t>West Valley School District 363</t>
-  </si>
-  <si>
-    <t>White Pass School District 303</t>
-  </si>
-  <si>
-    <t>White River School District 416</t>
-  </si>
-  <si>
-    <t>White Salmon Valley School District 405-17</t>
-  </si>
-  <si>
-    <t>Wilbur School District 200</t>
-  </si>
-  <si>
-    <t>Willapa Valley School District 160</t>
-  </si>
-  <si>
-    <t>Wilson Creek School District 167-202</t>
-  </si>
-  <si>
-    <t>Winlock School District 232</t>
-  </si>
-  <si>
-    <t>Wishkah Valley School District 117</t>
-  </si>
-  <si>
-    <t>Wishram School District 94</t>
-  </si>
-  <si>
-    <t>Woodland School District 404</t>
-  </si>
-  <si>
-    <t>Yakima Public Schools</t>
-  </si>
-  <si>
-    <t>Yelm Community School District 2</t>
-  </si>
-  <si>
-    <t>Zillah School District 205</t>
+    <t>University Place</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Vashon Island</t>
+  </si>
+  <si>
+    <t>Wahkiakum</t>
+  </si>
+  <si>
+    <t>Wahluke</t>
+  </si>
+  <si>
+    <t>Waitsburg</t>
+  </si>
+  <si>
+    <t>Walla Walla</t>
+  </si>
+  <si>
+    <t>Wapato</t>
+  </si>
+  <si>
+    <t>Warden</t>
+  </si>
+  <si>
+    <t>Washougal</t>
+  </si>
+  <si>
+    <t>Washtucna</t>
+  </si>
+  <si>
+    <t>Waterville</t>
+  </si>
+  <si>
+    <t>Wellpinit</t>
+  </si>
+  <si>
+    <t>Wenatchee</t>
+  </si>
+  <si>
+    <t>West Valley (Spo)</t>
+  </si>
+  <si>
+    <t>West Valley (Yak)</t>
+  </si>
+  <si>
+    <t>White Pass</t>
+  </si>
+  <si>
+    <t>White River</t>
+  </si>
+  <si>
+    <t>White Salmon Valley</t>
+  </si>
+  <si>
+    <t>Wilbur</t>
+  </si>
+  <si>
+    <t>Willapa Valley</t>
+  </si>
+  <si>
+    <t>Wilson Creek</t>
+  </si>
+  <si>
+    <t>Winlock</t>
+  </si>
+  <si>
+    <t>Wishkah Valley</t>
+  </si>
+  <si>
+    <t>Wishram</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Yakima</t>
+  </si>
+  <si>
+    <t>Yelm Community</t>
+  </si>
+  <si>
+    <t>Zillah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -822,6 +822,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -882,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -900,12 +904,15 @@
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1430,7 +1437,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="10">
@@ -1480,7 +1487,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3">
@@ -2842,7 +2849,7 @@
       <c r="P36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3">
@@ -2878,7 +2885,7 @@
       <c r="P37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3">
@@ -3344,7 +3351,7 @@
       <c r="P49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="3">
@@ -3388,7 +3395,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="3">
@@ -3906,7 +3913,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B62" s="3">
@@ -6758,7 +6765,7 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B126" s="3">
@@ -10032,7 +10039,7 @@
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B198" s="3">
@@ -10082,7 +10089,7 @@
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B199" s="3">
@@ -10276,7 +10283,7 @@
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B203" s="10">
@@ -10890,7 +10897,7 @@
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B217" s="3">
@@ -10940,7 +10947,7 @@
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B218" s="3">
@@ -11020,7 +11027,7 @@
       <c r="P219" s="8"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B220" s="10">
@@ -11590,7 +11597,7 @@
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B233" s="3">
@@ -11634,7 +11641,7 @@
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B234" s="3">

--- a/WA _District_SAT_2019.xlsx
+++ b/WA _District_SAT_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingf\Desktop\git\APStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4FFCC4-8490-4BED-B7CA-4E12C4E9392E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28652795-2858-4B89-9414-F90B2EA9EF51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictSummaryHighSchool_cross" sheetId="1" r:id="rId1"/>
@@ -423,15 +423,6 @@
     <t>Mossyrock</t>
   </si>
   <si>
-    <t>Mount Vernon</t>
-  </si>
-  <si>
-    <t>Mt Adams</t>
-  </si>
-  <si>
-    <t>Mt Baker</t>
-  </si>
-  <si>
     <t>Mukilteo</t>
   </si>
   <si>
@@ -768,9 +759,6 @@
     <t>White River</t>
   </si>
   <si>
-    <t>White Salmon Valley</t>
-  </si>
-  <si>
     <t>Wilbur</t>
   </si>
   <si>
@@ -795,9 +783,6 @@
     <t>Yakima</t>
   </si>
   <si>
-    <t>Yelm Community</t>
-  </si>
-  <si>
     <t>Zillah</t>
   </si>
   <si>
@@ -811,6 +796,21 @@
   </si>
   <si>
     <t>Lacenter</t>
+  </si>
+  <si>
+    <t>White Salmon</t>
+  </si>
+  <si>
+    <t>Mount Adams</t>
+  </si>
+  <si>
+    <t>Mount Baker</t>
+  </si>
+  <si>
+    <t>Mt Vernon</t>
+  </si>
+  <si>
+    <t>Yelm</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B91" s="3">
         <v>16</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -6501,8 +6501,8 @@
       <c r="P119" s="8"/>
     </row>
     <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>132</v>
+      <c r="A120" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="B120" s="3">
         <v>40</v>
@@ -6551,8 +6551,8 @@
       </c>
     </row>
     <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>133</v>
+      <c r="A121" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -6589,8 +6589,8 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>134</v>
+      <c r="A122" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="B122" s="3">
         <v>47</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B123" s="3">
         <v>295</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B124" s="3">
         <v>21</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B125" s="3">
         <v>13</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B126" s="3">
         <v>11</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B127" s="3">
         <v>6</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B128" s="3">
         <v>125</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B129" s="3">
         <v>42</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B130" s="3">
         <v>46</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B131" s="3">
         <v>19</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B132" s="3">
         <v>83</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B135" s="3">
         <v>204</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B136" s="3">
         <v>7</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B137" s="10">
         <v>1628</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B138" s="3">
         <v>35</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B139" s="3">
         <v>10</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B141" s="3">
         <v>25</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B142" s="3">
         <v>14</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B144" s="3">
         <v>180</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B145" s="3">
         <v>55</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B146" s="3">
         <v>13</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B147" s="3">
         <v>28</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B148" s="3">
         <v>41</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B150" s="3">
         <v>54</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B151" s="3">
         <v>15</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B152" s="10">
         <v>1081</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B153" s="3">
         <v>26</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B154" s="3">
         <v>17</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B155" s="3">
         <v>618</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B156" s="3">
         <v>14</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B157" s="3">
         <v>61</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B158" s="3">
         <v>13</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B160" s="3">
         <v>60</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B161" s="3">
         <v>86</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B162" s="3">
         <v>168</v>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B164" s="3">
         <v>66</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B165" s="3">
         <v>162</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B166" s="3">
         <v>14</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B169" s="3">
         <v>960</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B170" s="3">
         <v>8</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B171" s="3">
         <v>949</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B172" s="3">
         <v>22</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B173" s="3">
         <v>7</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B174" s="3">
         <v>26</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B175" s="3">
         <v>61</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B176" s="3">
         <v>123</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B177" s="3">
         <v>13</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B178" s="3">
         <v>106</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B179" s="3">
         <v>1</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B180" s="3">
         <v>53</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B181" s="10">
         <v>3120</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B182" s="3">
         <v>231</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B184" s="3">
         <v>17</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B185" s="3">
         <v>38</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B186" s="3">
         <v>21</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B187" s="3">
         <v>675</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B188" s="3">
         <v>2</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B189" s="3">
         <v>86</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B190" s="3">
         <v>460</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B192" s="3">
         <v>9</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B193" s="3">
         <v>575</v>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B194" s="3">
         <v>32</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B195" s="10">
         <v>1831</v>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B196" s="3">
         <v>3</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B197" s="3">
         <v>12</v>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B198" s="3">
         <v>56</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B200" s="3">
         <v>27</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B201" s="3">
         <v>160</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B202" s="3">
         <v>18</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B203" s="10">
         <v>1654</v>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B205" s="3">
         <v>97</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B207" s="3">
         <v>20</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B208" s="3">
         <v>5</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B209" s="3">
         <v>23</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B210" s="3">
         <v>53</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B211" s="3">
         <v>22</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B213" s="3">
         <v>2</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B214" s="3">
         <v>23</v>
@@ -10814,7 +10814,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B215" s="3">
         <v>207</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B216" s="3">
         <v>78</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B217" s="3">
         <v>191</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B218" s="3">
         <v>459</v>
@@ -11014,7 +11014,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B219" s="3">
         <v>5</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B220" s="10">
         <v>1490</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B221" s="3">
         <v>84</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B222" s="3">
         <v>26</v>
@@ -11194,7 +11194,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -11230,7 +11230,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B225" s="3">
         <v>44</v>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B228" s="3">
         <v>83</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B231" s="3">
         <v>17</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B232" s="3">
         <v>105</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B233" s="3">
         <v>4</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B234" s="3">
         <v>214</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B235" s="3">
         <v>30</v>
@@ -11758,7 +11758,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B236" s="3">
         <v>230</v>
@@ -11801,8 +11801,8 @@
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>247</v>
+      <c r="A237" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="B237" s="3">
         <v>20</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B238" s="3">
         <v>20</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="239" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B239" s="3">
         <v>4</v>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="240" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -11962,7 +11962,7 @@
     </row>
     <row r="241" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B241" s="3">
         <v>3</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="242" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B242" s="3">
         <v>2</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="244" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B244" s="3">
         <v>34</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="245" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B245" s="3">
         <v>16</v>
@@ -12163,8 +12163,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>256</v>
+      <c r="A246" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="B246" s="3">
         <v>21</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="247" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
